--- a/hw1_score_s1234567(配分範例).xlsx
+++ b/hw1_score_s1234567(配分範例).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ichenyeh/Dropbox/Course/Computer Graphics/Hw01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University(D)\1081\TEST\108CG_Hw1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A841C746-E778-DE46-9E51-D5A8E96CDE6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="460" windowWidth="19220" windowHeight="16500" xr2:uid="{73D4C3C4-C595-1140-8FEB-320631BC01A8}"/>
+    <workbookView xWindow="9300" yWindow="456" windowWidth="19224" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -277,8 +276,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -373,7 +372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,6 +395,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,24 +713,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD7397A-15C4-8148-9ECD-C8DF2EAE885B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="22"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="22.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="46.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="66.83203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="66.77734375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="25">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -740,7 +742,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="25">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -757,7 +759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="25">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -770,7 +772,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="25">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -783,7 +785,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="25">
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -796,7 +798,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="25">
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -807,15 +809,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="25">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" ht="25">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="1">
         <v>5</v>
@@ -824,11 +828,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="1">
         <v>10</v>
@@ -837,21 +843,25 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
       <c r="C11" s="6"/>
       <c r="D11" s="1">
         <v>10</v>
@@ -860,17 +870,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
       <c r="C12" s="6"/>
       <c r="D12" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -883,16 +895,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
       <c r="C15" s="6"/>
       <c r="D15" s="1">
         <v>5</v>
@@ -901,7 +915,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -912,7 +926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -925,7 +939,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -938,7 +952,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -948,7 +962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -961,7 +975,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -974,7 +988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -987,12 +1001,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -1005,7 +1019,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -1018,7 +1032,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -1031,7 +1045,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -1044,7 +1058,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -1057,7 +1071,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -1070,7 +1084,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -1083,7 +1097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>42</v>
       </c>
@@ -1091,7 +1105,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -1104,7 +1118,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -1117,7 +1131,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D38" s="1">
         <f>SUM(D3:D5)+SUM(D8:D15)+SUM(D18:D23)+SUM(D26:D32)+SUM(D35:D36)</f>
         <v>120</v>
@@ -1126,6 +1140,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>